--- a/data/pca/factorExposure/factorExposure_2012-07-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-25.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002079773196392925</v>
+        <v>0.001734124714798967</v>
       </c>
       <c r="C2">
-        <v>0.02943220635828315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02881545234313449</v>
+      </c>
+      <c r="D2">
+        <v>-0.005819597415295476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.003757998112731328</v>
+        <v>-0.006557754451273856</v>
       </c>
       <c r="C4">
-        <v>0.08936018676412828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08402680523195701</v>
+      </c>
+      <c r="D4">
+        <v>-0.06567314668797901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.01029431550316979</v>
+        <v>-0.01517660391955658</v>
       </c>
       <c r="C6">
-        <v>0.1155492478128838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.1194779355367037</v>
+      </c>
+      <c r="D6">
+        <v>-0.01675406318533028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00228461663398175</v>
+        <v>-0.004486153024741887</v>
       </c>
       <c r="C7">
-        <v>0.05559086976081239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05944247878994662</v>
+      </c>
+      <c r="D7">
+        <v>-0.03363061592849235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.003968388734747071</v>
+        <v>-0.004610664744105041</v>
       </c>
       <c r="C8">
-        <v>0.04183285380356041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.03655629272062422</v>
+      </c>
+      <c r="D8">
+        <v>-0.0367056973820525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003047102256340967</v>
+        <v>-0.006043339967828516</v>
       </c>
       <c r="C9">
-        <v>0.07616428938611118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.07526045700724314</v>
+      </c>
+      <c r="D9">
+        <v>-0.07018159904176256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0003582738366914662</v>
+        <v>-0.001342682827578357</v>
       </c>
       <c r="C10">
-        <v>0.04347554141725058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04861357560831302</v>
+      </c>
+      <c r="D10">
+        <v>0.1856290873453224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003276693910201904</v>
+        <v>-0.006795726293416241</v>
       </c>
       <c r="C11">
-        <v>0.08755262375680521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0826479660965828</v>
+      </c>
+      <c r="D11">
+        <v>-0.06673290802720283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.002406176590498589</v>
+        <v>-0.005004678297514497</v>
       </c>
       <c r="C12">
-        <v>0.07031064316717095</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.06791646883621617</v>
+      </c>
+      <c r="D12">
+        <v>-0.04789795975755928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.006212659428689781</v>
+        <v>-0.009221649987119773</v>
       </c>
       <c r="C13">
-        <v>0.07660205233638057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07029945117077446</v>
+      </c>
+      <c r="D13">
+        <v>-0.05479669196474556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001334160095962858</v>
+        <v>3.547969407155072e-05</v>
       </c>
       <c r="C14">
-        <v>0.04313423341076677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.04367921736833458</v>
+      </c>
+      <c r="D14">
+        <v>-0.01126672058003791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.005127468581398559</v>
+        <v>-0.006471990854893236</v>
       </c>
       <c r="C15">
-        <v>0.04207294928066295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.04038205280628874</v>
+      </c>
+      <c r="D15">
+        <v>-0.02011430104716334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003707359627860458</v>
+        <v>-0.005879742446788752</v>
       </c>
       <c r="C16">
-        <v>0.07262384059995837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.06736758178827161</v>
+      </c>
+      <c r="D16">
+        <v>-0.05753124576910118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.007187842267581472</v>
+        <v>-0.009202044446694755</v>
       </c>
       <c r="C20">
-        <v>0.07269872614741754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.06449412947357154</v>
+      </c>
+      <c r="D20">
+        <v>-0.04919570503689524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.007960241066661355</v>
+        <v>-0.00926249497353783</v>
       </c>
       <c r="C21">
-        <v>0.02425267864656513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01969230998189537</v>
+      </c>
+      <c r="D21">
+        <v>-0.03994929612210487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01032752875484194</v>
+        <v>0.007811093954814634</v>
       </c>
       <c r="C22">
-        <v>0.1008010814474488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.08460112654541961</v>
+      </c>
+      <c r="D22">
+        <v>-0.1112346997527988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01000641895712308</v>
+        <v>0.007460321067253538</v>
       </c>
       <c r="C23">
-        <v>0.1012267888423842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.08508478729476034</v>
+      </c>
+      <c r="D23">
+        <v>-0.1122838745151855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003282966710949423</v>
+        <v>-0.006776568438386739</v>
       </c>
       <c r="C24">
-        <v>0.08069811912285366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.07914894847448087</v>
+      </c>
+      <c r="D24">
+        <v>-0.06541332414742591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.001330447365329338</v>
+        <v>-0.004087968774309238</v>
       </c>
       <c r="C25">
-        <v>0.08512018822790579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.08020883776994799</v>
+      </c>
+      <c r="D25">
+        <v>-0.06304911299775255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.002548256747223096</v>
+        <v>-0.003973603987229382</v>
       </c>
       <c r="C26">
-        <v>0.04001374493819417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.04009385242795185</v>
+      </c>
+      <c r="D26">
+        <v>-0.01884418216174882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007303583929615066</v>
+        <v>0.005191411198436117</v>
       </c>
       <c r="C28">
-        <v>0.085828120730436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.09490148142838233</v>
+      </c>
+      <c r="D28">
+        <v>0.3262605372274503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001927469282592496</v>
+        <v>-0.003175696398187333</v>
       </c>
       <c r="C29">
-        <v>0.0469399579568654</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04745157497487575</v>
+      </c>
+      <c r="D29">
+        <v>-0.008846973041014616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005593463008584195</v>
+        <v>-0.01037381452076084</v>
       </c>
       <c r="C30">
-        <v>0.1473284626355641</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.1425564349642325</v>
+      </c>
+      <c r="D30">
+        <v>-0.1071938527053287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.004356143698161991</v>
+        <v>-0.006266835635624392</v>
       </c>
       <c r="C31">
-        <v>0.04445172388344786</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.04511537539749678</v>
+      </c>
+      <c r="D31">
+        <v>-0.0296970173858683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.001829379103000712</v>
+        <v>-0.003147296499452276</v>
       </c>
       <c r="C32">
-        <v>0.04174865492265761</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.03701393210081772</v>
+      </c>
+      <c r="D32">
+        <v>-0.01494727948887045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.005846295822422177</v>
+        <v>-0.009626955897434555</v>
       </c>
       <c r="C33">
-        <v>0.09214145796996305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.09287551388106233</v>
+      </c>
+      <c r="D33">
+        <v>-0.06064683214779543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.002850590286640206</v>
+        <v>-0.005442507882440022</v>
       </c>
       <c r="C34">
-        <v>0.06120452393838371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.06053017713582037</v>
+      </c>
+      <c r="D34">
+        <v>-0.05715927184751655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004019283221202314</v>
+        <v>-0.005303060389203355</v>
       </c>
       <c r="C35">
-        <v>0.04088525403227064</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.04075140696395784</v>
+      </c>
+      <c r="D35">
+        <v>-0.01306088802338849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003017071169404962</v>
+        <v>0.001561216905032303</v>
       </c>
       <c r="C36">
-        <v>0.0240312311422846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.02542981650305799</v>
+      </c>
+      <c r="D36">
+        <v>-0.01956133524241325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.006357448119413395</v>
+        <v>-0.00820627365586944</v>
       </c>
       <c r="C38">
-        <v>0.03909812268810439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.03910191044358645</v>
+      </c>
+      <c r="D38">
+        <v>-0.01193375854272951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.005777839750353423</v>
+        <v>0.00120561013852424</v>
       </c>
       <c r="C39">
-        <v>0.1190065408857104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1141870396287085</v>
+      </c>
+      <c r="D39">
+        <v>-0.08380539050244842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.0005334538884832278</v>
+        <v>-0.002954613813996774</v>
       </c>
       <c r="C40">
-        <v>0.0892442062204974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.0852692546742229</v>
+      </c>
+      <c r="D40">
+        <v>-0.006918451087686651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.006298935076333771</v>
+        <v>-0.007926366094563916</v>
       </c>
       <c r="C41">
-        <v>0.04074369802717098</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.04235172851560041</v>
+      </c>
+      <c r="D41">
+        <v>-0.04229384106906863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.001059407416390331</v>
+        <v>-0.004214546915674309</v>
       </c>
       <c r="C43">
-        <v>0.05257192590945164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.05403446296720273</v>
+      </c>
+      <c r="D43">
+        <v>-0.02683498050610647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.0002095341192232815</v>
+        <v>-0.002504966711090235</v>
       </c>
       <c r="C44">
-        <v>0.1217177829491087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1045106280806411</v>
+      </c>
+      <c r="D44">
+        <v>-0.06386139327735084</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>9.116550451116578e-05</v>
+        <v>-0.0007265612984938559</v>
       </c>
       <c r="C46">
-        <v>0.03433633542564012</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03123223810797656</v>
+      </c>
+      <c r="D46">
+        <v>-0.03363549982837109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002249792207617587</v>
+        <v>-0.003318714952992363</v>
       </c>
       <c r="C47">
-        <v>0.03723871509273286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03540818447231145</v>
+      </c>
+      <c r="D47">
+        <v>-0.01818650814427592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00652428127652011</v>
+        <v>-0.007753577935194411</v>
       </c>
       <c r="C48">
-        <v>0.03123994152255392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.03225831199915103</v>
+      </c>
+      <c r="D48">
+        <v>-0.02724174015841265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01215844157214029</v>
+        <v>-0.01942666297436864</v>
       </c>
       <c r="C49">
-        <v>0.1859622657676594</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.1885840764533714</v>
+      </c>
+      <c r="D49">
+        <v>-0.009604488908664152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.002939284819308605</v>
+        <v>-0.004262245482293118</v>
       </c>
       <c r="C50">
-        <v>0.04001046898285831</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.04364701906605778</v>
+      </c>
+      <c r="D50">
+        <v>-0.03852801855972948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.003153528494031916</v>
+        <v>-0.004158987403239453</v>
       </c>
       <c r="C51">
-        <v>0.03051207683182453</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.02820698584890185</v>
+      </c>
+      <c r="D51">
+        <v>-0.02417728659407953</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.01574043081846056</v>
+        <v>-0.0221188249503359</v>
       </c>
       <c r="C53">
-        <v>0.1739153246303826</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.1721113587364812</v>
+      </c>
+      <c r="D53">
+        <v>-0.01824794485376557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.006456161751087623</v>
+        <v>-0.008924058481754146</v>
       </c>
       <c r="C54">
-        <v>0.05720655360751454</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.05731413180307992</v>
+      </c>
+      <c r="D54">
+        <v>-0.03865330939659579</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.007262273392386173</v>
+        <v>-0.01043354070625027</v>
       </c>
       <c r="C55">
-        <v>0.113451611786555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.1088540361155166</v>
+      </c>
+      <c r="D55">
+        <v>-0.03152726668042163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01487633979960175</v>
+        <v>-0.02195247152014757</v>
       </c>
       <c r="C56">
-        <v>0.1733403832662802</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.1730432264615006</v>
+      </c>
+      <c r="D56">
+        <v>-0.01549069014944035</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.01572142521713118</v>
+        <v>-0.01779080786701612</v>
       </c>
       <c r="C58">
-        <v>0.1212521532539968</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.104713316617878</v>
+      </c>
+      <c r="D58">
+        <v>-0.0541199506855149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.00246394873227442</v>
+        <v>-0.009052728497762574</v>
       </c>
       <c r="C59">
-        <v>0.1374885092926749</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1653083970872274</v>
+      </c>
+      <c r="D59">
+        <v>0.3521146807011407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.01797769022991734</v>
+        <v>-0.02687480071519412</v>
       </c>
       <c r="C60">
-        <v>0.2172754361922176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.2259106228644662</v>
+      </c>
+      <c r="D60">
+        <v>-0.01920745915895426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.005021871112994333</v>
+        <v>0.001630632836364928</v>
       </c>
       <c r="C61">
-        <v>0.09908545176788008</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.09510352397339182</v>
+      </c>
+      <c r="D61">
+        <v>-0.06119049675101054</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1546209909203994</v>
+        <v>-0.1572194773442837</v>
       </c>
       <c r="C62">
-        <v>0.1017534305016124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.1061446758718715</v>
+      </c>
+      <c r="D62">
+        <v>-0.01474947725971076</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.004979575208159008</v>
+        <v>-0.006789152969104685</v>
       </c>
       <c r="C63">
-        <v>0.05546746857063559</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.05387401471896675</v>
+      </c>
+      <c r="D63">
+        <v>-0.03133812626041148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01422687080100253</v>
+        <v>-0.01737394919718088</v>
       </c>
       <c r="C64">
-        <v>0.114910611167781</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.1119575050178468</v>
+      </c>
+      <c r="D64">
+        <v>-0.04870321745704573</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.01421072214222534</v>
+        <v>-0.01823812249439082</v>
       </c>
       <c r="C65">
-        <v>0.1240835362213807</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.127243239462446</v>
+      </c>
+      <c r="D65">
+        <v>-0.01940461488089152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007873607278432703</v>
+        <v>-0.01418616716911708</v>
       </c>
       <c r="C66">
-        <v>0.1643326916285021</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1631905205329851</v>
+      </c>
+      <c r="D66">
+        <v>-0.1166501571201242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.0115013366144358</v>
+        <v>-0.01468593574771595</v>
       </c>
       <c r="C67">
-        <v>0.0730742768360917</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07271172606069465</v>
+      </c>
+      <c r="D67">
+        <v>-0.02531954648874503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.001130048825452918</v>
+        <v>-0.001151698914362443</v>
       </c>
       <c r="C68">
-        <v>0.07283962806461805</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.08137887941189119</v>
+      </c>
+      <c r="D68">
+        <v>0.2639808781059849</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002784387895998647</v>
+        <v>-0.005620186691451714</v>
       </c>
       <c r="C69">
-        <v>0.05536012352144916</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.05325465458262116</v>
+      </c>
+      <c r="D69">
+        <v>-0.03566486970996455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001301709396960707</v>
+        <v>-0.002810683258272517</v>
       </c>
       <c r="C70">
-        <v>0.002220495042576507</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.009471738806762458</v>
+      </c>
+      <c r="D70">
+        <v>-0.0001337319369763987</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.000644890514510686</v>
+        <v>-0.003224751161092536</v>
       </c>
       <c r="C71">
-        <v>0.07397761091060388</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.08428542553741111</v>
+      </c>
+      <c r="D71">
+        <v>0.304459596823504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.01245000766545275</v>
+        <v>-0.01894710875965354</v>
       </c>
       <c r="C72">
-        <v>0.1514629231459463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.1589893411123504</v>
+      </c>
+      <c r="D72">
+        <v>-0.008082171446242861</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.02311887861087063</v>
+        <v>-0.03214297417244183</v>
       </c>
       <c r="C73">
-        <v>0.2874266417412507</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.2860386969005584</v>
+      </c>
+      <c r="D73">
+        <v>-0.05624230078438872</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.0009396720561478974</v>
+        <v>-0.002177065931317597</v>
       </c>
       <c r="C74">
-        <v>0.1068982499495505</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.1033978256117193</v>
+      </c>
+      <c r="D74">
+        <v>-0.03180233434270979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.007089763298008653</v>
+        <v>-0.01228556262455502</v>
       </c>
       <c r="C75">
-        <v>0.1216259270262057</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.1169837118002805</v>
+      </c>
+      <c r="D75">
+        <v>-0.02474349320490566</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01804012876023051</v>
+        <v>-0.02319836565113793</v>
       </c>
       <c r="C76">
-        <v>0.1495386975611636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.1453565213445622</v>
+      </c>
+      <c r="D76">
+        <v>-0.05418832693680174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.01508420727686786</v>
+        <v>-0.02097958115639012</v>
       </c>
       <c r="C77">
-        <v>0.1090390109579054</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1035919406112053</v>
+      </c>
+      <c r="D77">
+        <v>-0.04621077564486477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.01056738134955287</v>
+        <v>-0.01484949255214185</v>
       </c>
       <c r="C78">
-        <v>0.09538599403621188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1031795547753124</v>
+      </c>
+      <c r="D78">
+        <v>-0.07658343945998866</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.03311979449176166</v>
+        <v>-0.03970054827752374</v>
       </c>
       <c r="C79">
-        <v>0.160298088749911</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.1562754453715576</v>
+      </c>
+      <c r="D79">
+        <v>-0.02482824537093794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.009427936725952759</v>
+        <v>-0.009741046334007266</v>
       </c>
       <c r="C80">
-        <v>0.04756402846485691</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.03924157507031823</v>
+      </c>
+      <c r="D80">
+        <v>-0.02398505620346154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.01123748129424402</v>
+        <v>-0.01647327486273403</v>
       </c>
       <c r="C81">
-        <v>0.1326668257833019</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.130094470911902</v>
+      </c>
+      <c r="D81">
+        <v>-0.03503951712694946</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.01438694961454665</v>
+        <v>-0.02025199676348408</v>
       </c>
       <c r="C82">
-        <v>0.1427351458642947</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.136733913251346</v>
+      </c>
+      <c r="D82">
+        <v>-0.036648354887813</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009536602639128949</v>
+        <v>-0.01221143122606884</v>
       </c>
       <c r="C83">
-        <v>0.07437300935233283</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06699713207319236</v>
+      </c>
+      <c r="D83">
+        <v>-0.0439102738134693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.006739981845785264</v>
+        <v>-0.007423302506453264</v>
       </c>
       <c r="C84">
-        <v>0.02839994858841803</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.034914454375871</v>
+      </c>
+      <c r="D84">
+        <v>-0.009660655139473609</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.02629082857560797</v>
+        <v>-0.02994497175692317</v>
       </c>
       <c r="C85">
-        <v>0.1386727408244762</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.1225076617055685</v>
+      </c>
+      <c r="D85">
+        <v>-0.03901215929429237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001535698850658943</v>
+        <v>-0.003404464769191714</v>
       </c>
       <c r="C86">
-        <v>0.05215898475457172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.04874486600393263</v>
+      </c>
+      <c r="D86">
+        <v>-0.01499465834169042</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008224802621434775</v>
+        <v>-0.01297013149330153</v>
       </c>
       <c r="C87">
-        <v>0.1385246444614719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1283232537127811</v>
+      </c>
+      <c r="D87">
+        <v>-0.07244470433642697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.005029012739672553</v>
+        <v>0.002572869198086504</v>
       </c>
       <c r="C88">
-        <v>0.06957392934113601</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06459783765195873</v>
+      </c>
+      <c r="D88">
+        <v>-0.0281229899097039</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.008767344738672611</v>
+        <v>0.003756687272768862</v>
       </c>
       <c r="C89">
-        <v>0.1091253793594514</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.1263139506869214</v>
+      </c>
+      <c r="D89">
+        <v>0.3215762763831531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0008467647659250215</v>
+        <v>-0.004167758415511774</v>
       </c>
       <c r="C90">
-        <v>0.09872726079137162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.109073199214849</v>
+      </c>
+      <c r="D90">
+        <v>0.3151794364688119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.007338231804798304</v>
+        <v>-0.01112954325151825</v>
       </c>
       <c r="C91">
-        <v>0.1030655303418573</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.09902957713643715</v>
+      </c>
+      <c r="D91">
+        <v>-0.02717158590698973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.004208103340796564</v>
+        <v>0.0007399825797932027</v>
       </c>
       <c r="C92">
-        <v>0.1080708144937991</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.1201347614930135</v>
+      </c>
+      <c r="D92">
+        <v>0.3295554718851321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00171070650036138</v>
+        <v>-0.001810709961855791</v>
       </c>
       <c r="C93">
-        <v>0.08739153877116154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.1009929924733433</v>
+      </c>
+      <c r="D93">
+        <v>0.3018031394129898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01699676438618664</v>
+        <v>-0.02195126687476839</v>
       </c>
       <c r="C94">
-        <v>0.1512885525219383</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.1346654481472966</v>
+      </c>
+      <c r="D94">
+        <v>-0.05285264621851295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.01508900320320933</v>
+        <v>-0.01887968535637806</v>
       </c>
       <c r="C95">
-        <v>0.1280636004230703</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1235585346595227</v>
+      </c>
+      <c r="D95">
+        <v>-0.06291171734640016</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.02814763802666968</v>
+        <v>-0.03871219795939063</v>
       </c>
       <c r="C97">
-        <v>0.2009941434386288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.2245854200750965</v>
+      </c>
+      <c r="D97">
+        <v>0.0142866756284749</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.02852241533655941</v>
+        <v>-0.03865487382280008</v>
       </c>
       <c r="C98">
-        <v>0.2705810442874665</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.2658232172955017</v>
+      </c>
+      <c r="D98">
+        <v>-0.03575369083922898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9833958894725324</v>
+        <v>-0.9795475705916546</v>
       </c>
       <c r="C99">
-        <v>-0.08843459450108057</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.1254619264649311</v>
+      </c>
+      <c r="D99">
+        <v>0.02696887090589778</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001919391773865811</v>
+        <v>-0.003171081626903945</v>
       </c>
       <c r="C101">
-        <v>0.04721352479271864</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.0476478280645874</v>
+      </c>
+      <c r="D101">
+        <v>-0.009514208218186099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
